--- a/data/raw/Consumer_Price_Index_for_All_Urban_Consumers_Energy_Services_in_US_City_Average_data.xlsx
+++ b/data/raw/Consumer_Price_Index_for_All_Urban_Consumers_Energy_Services_in_US_City_Average_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
   <si>
     <t xml:space="preserve">realtime_start</t>
   </si>
@@ -29,142 +29,73 @@
     <t xml:space="preserve">2025-02-22</t>
   </si>
   <si>
-    <t xml:space="preserve">2005-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-12-01</t>
+    <t xml:space="preserve">2006-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-12-01</t>
   </si>
   <si>
     <t xml:space="preserve">182.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-12-01</t>
   </si>
   <si>
     <t xml:space="preserve">2007-01-01</t>
@@ -1901,7 +1832,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -1912,10 +1843,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1926,10 +1857,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -1940,10 +1871,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -1954,10 +1885,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -1968,10 +1899,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -1982,10 +1913,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
         <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1996,10 +1927,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2010,10 +1941,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
         <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2024,10 +1955,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -2038,10 +1969,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
         <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -2052,10 +1983,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
         <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -2066,10 +1997,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
         <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -2139,7 +2070,7 @@
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -2150,10 +2081,10 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
@@ -2164,10 +2095,10 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -2178,10 +2109,10 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -2192,10 +2123,10 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -2206,10 +2137,10 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
@@ -2220,10 +2151,10 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
@@ -2234,10 +2165,10 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -2248,10 +2179,10 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
@@ -2262,10 +2193,10 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35">
@@ -2276,10 +2207,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -2290,10 +2221,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
@@ -2304,10 +2235,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
@@ -2318,10 +2249,10 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -2332,10 +2263,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
@@ -2346,10 +2277,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
@@ -2360,10 +2291,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
@@ -2374,10 +2305,10 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
@@ -2388,10 +2319,10 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
@@ -2402,10 +2333,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45">
@@ -2416,10 +2347,10 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46">
@@ -2430,10 +2361,10 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47">
@@ -2444,10 +2375,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48">
@@ -2458,10 +2389,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49">
@@ -2472,10 +2403,10 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50">
@@ -2486,10 +2417,10 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
@@ -2500,10 +2431,10 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52">
@@ -2514,10 +2445,10 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
@@ -2528,10 +2459,10 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54">
@@ -2542,10 +2473,10 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
@@ -2556,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56">
@@ -2570,10 +2501,10 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57">
@@ -2584,10 +2515,10 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58">
@@ -2598,10 +2529,10 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59">
@@ -2612,10 +2543,10 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60">
@@ -2626,10 +2557,10 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61">
@@ -2640,10 +2571,10 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62">
@@ -2654,10 +2585,10 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63">
@@ -2668,10 +2599,10 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64">
@@ -2839,7 +2770,7 @@
         <v>149</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76">
@@ -2850,10 +2781,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77">
@@ -2864,10 +2795,10 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78">
@@ -2878,10 +2809,10 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79">
@@ -2892,10 +2823,10 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80">
@@ -2906,10 +2837,10 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D80" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81">
@@ -2920,10 +2851,10 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D81" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82">
@@ -2934,10 +2865,10 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83">
@@ -2948,10 +2879,10 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84">
@@ -2962,10 +2893,10 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85">
@@ -2976,10 +2907,10 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86">
@@ -2990,10 +2921,10 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87">
@@ -3004,10 +2935,10 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88">
@@ -3018,10 +2949,10 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D88" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
@@ -3032,10 +2963,10 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90">
@@ -3046,10 +2977,10 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D90" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91">
@@ -3060,10 +2991,10 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92">
@@ -3074,10 +3005,10 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93">
@@ -3088,10 +3019,10 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94">
@@ -3102,10 +3033,10 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95">
@@ -3116,10 +3047,10 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96">
@@ -3130,10 +3061,10 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D96" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97">
@@ -3144,10 +3075,10 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D97" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98">
@@ -3158,10 +3089,10 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D98" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99">
@@ -3172,10 +3103,10 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D99" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100">
@@ -3186,10 +3117,10 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101">
@@ -3200,10 +3131,10 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102">
@@ -3214,10 +3145,10 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D102" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103">
@@ -3228,10 +3159,10 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D103" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104">
@@ -3242,10 +3173,10 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105">
@@ -3256,10 +3187,10 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106">
@@ -3270,10 +3201,10 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107">
@@ -3284,10 +3215,10 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108">
@@ -3298,10 +3229,10 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D108" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109">
@@ -3312,10 +3243,10 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110">
@@ -3326,10 +3257,10 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D110" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111">
@@ -3340,10 +3271,10 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D111" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112">
@@ -3354,10 +3285,10 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D112" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113">
@@ -3368,10 +3299,10 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D113" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114">
@@ -3382,10 +3313,10 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D114" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115">
@@ -3396,10 +3327,10 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D115" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116">
@@ -3410,10 +3341,10 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D116" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="117">
@@ -3424,10 +3355,10 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118">
@@ -3438,10 +3369,10 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="119">
@@ -3452,10 +3383,10 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D119" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120">
@@ -3466,10 +3397,10 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121">
@@ -3480,10 +3411,10 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D121" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122">
@@ -3494,10 +3425,10 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D122" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="123">
@@ -3508,10 +3439,10 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D123" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="124">
@@ -3522,10 +3453,10 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D124" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125">
@@ -3536,10 +3467,10 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D125" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="126">
@@ -3550,10 +3481,10 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D126" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127">
@@ -3564,10 +3495,10 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128">
@@ -3578,10 +3509,10 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D128" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129">
@@ -3592,10 +3523,10 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D129" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130">
@@ -3606,10 +3537,10 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D130" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131">
@@ -3620,10 +3551,10 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132">
@@ -3634,10 +3565,10 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D132" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133">
@@ -3648,10 +3579,10 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134">
@@ -3662,10 +3593,10 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="135">
@@ -3676,10 +3607,10 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D135" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="136">
@@ -3690,10 +3621,10 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D136" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="137">
@@ -3704,10 +3635,10 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D137" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138">
@@ -3718,10 +3649,10 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D138" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="139">
@@ -3732,10 +3663,10 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D139" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140">
@@ -3746,10 +3677,10 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D140" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="141">
@@ -3760,10 +3691,10 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D141" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142">
@@ -3774,10 +3705,10 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D142" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="143">
@@ -3788,10 +3719,10 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D143" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144">
@@ -3802,10 +3733,10 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D144" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145">
@@ -3816,10 +3747,10 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D145" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146">
@@ -3830,10 +3761,10 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D146" t="s">
-        <v>291</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147">
@@ -4001,7 +3932,7 @@
         <v>314</v>
       </c>
       <c r="D158" t="s">
-        <v>84</v>
+        <v>315</v>
       </c>
     </row>
     <row r="159">
@@ -4012,10 +3943,10 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D159" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="160">
@@ -4026,10 +3957,10 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D160" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="161">
@@ -4040,10 +3971,10 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D161" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="162">
@@ -4054,10 +3985,10 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D162" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163">
@@ -4068,10 +3999,10 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D163" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164">
@@ -4082,10 +4013,10 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D164" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="165">
@@ -4096,10 +4027,10 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D165" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="166">
@@ -4110,10 +4041,10 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D166" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167">
@@ -4124,10 +4055,10 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D167" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="168">
@@ -4138,10 +4069,10 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D168" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="169">
@@ -4152,10 +4083,10 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D169" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="170">
@@ -4166,10 +4097,10 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D170" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="171">
@@ -4180,10 +4111,10 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D171" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="172">
@@ -4194,10 +4125,10 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D172" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173">
@@ -4208,10 +4139,10 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D173" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="174">
@@ -4222,10 +4153,10 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D174" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="175">
@@ -4236,10 +4167,10 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D175" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="176">
@@ -4250,10 +4181,10 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D176" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="177">
@@ -4264,10 +4195,10 @@
         <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D177" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178">
@@ -4278,10 +4209,10 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D178" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="179">
@@ -4292,10 +4223,10 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D179" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180">
@@ -4306,10 +4237,10 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D180" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="181">
@@ -4320,10 +4251,10 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D181" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="182">
@@ -4334,10 +4265,10 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D182" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="183">
@@ -4348,10 +4279,10 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D183" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="184">
@@ -4362,10 +4293,10 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D184" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="185">
@@ -4376,10 +4307,10 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D185" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="186">
@@ -4390,10 +4321,10 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D186" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="187">
@@ -4404,10 +4335,10 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D187" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="188">
@@ -4418,10 +4349,10 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D188" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="189">
@@ -4432,10 +4363,10 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D189" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="190">
@@ -4446,10 +4377,10 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D190" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="191">
@@ -4460,10 +4391,10 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D191" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="192">
@@ -4474,10 +4405,10 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D192" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="193">
@@ -4488,10 +4419,10 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D193" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="194">
@@ -4502,10 +4433,10 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D194" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="195">
@@ -4516,10 +4447,10 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D195" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="196">
@@ -4530,10 +4461,10 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D196" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="197">
@@ -4544,10 +4475,10 @@
         <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D197" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="198">
@@ -4558,10 +4489,10 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D198" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="199">
@@ -4572,10 +4503,10 @@
         <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D199" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="200">
@@ -4586,10 +4517,10 @@
         <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D200" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -4600,10 +4531,10 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D201" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="202">
@@ -4614,10 +4545,10 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D202" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="203">
@@ -4628,10 +4559,10 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D203" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="204">
@@ -4642,10 +4573,10 @@
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D204" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="205">
@@ -4656,10 +4587,10 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D205" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="206">
@@ -4670,10 +4601,10 @@
         <v>4</v>
       </c>
       <c r="C206" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D206" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="207">
@@ -4684,10 +4615,10 @@
         <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D207" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="208">
@@ -4698,10 +4629,10 @@
         <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D208" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="209">
@@ -4712,10 +4643,10 @@
         <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D209" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="210">
@@ -4726,10 +4657,10 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D210" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="211">
@@ -4740,10 +4671,10 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D211" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="212">
@@ -4754,10 +4685,10 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D212" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="213">
@@ -4768,10 +4699,10 @@
         <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D213" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="214">
@@ -4782,10 +4713,10 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D214" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="215">
@@ -4796,10 +4727,10 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D215" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="216">
@@ -4810,10 +4741,10 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D216" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="217">
@@ -4824,10 +4755,10 @@
         <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D217" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="218">
@@ -4838,10 +4769,10 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D218" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="219">
@@ -4852,10 +4783,10 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D219" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="220">
@@ -4866,10 +4797,10 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D220" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="221">
@@ -4880,10 +4811,10 @@
         <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D221" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="222">
@@ -4894,10 +4825,10 @@
         <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D222" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="223">
@@ -4908,10 +4839,10 @@
         <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D223" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="224">
@@ -4922,10 +4853,10 @@
         <v>4</v>
       </c>
       <c r="C224" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D224" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="225">
@@ -4936,10 +4867,10 @@
         <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D225" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="226">
@@ -4950,10 +4881,10 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D226" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="227">
@@ -4964,10 +4895,10 @@
         <v>4</v>
       </c>
       <c r="C227" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D227" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="228">
@@ -4978,10 +4909,10 @@
         <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D228" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="229">
@@ -4992,10 +4923,10 @@
         <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D229" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="230">
@@ -5006,178 +4937,10 @@
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D230" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>4</v>
-      </c>
-      <c r="B231" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" t="s">
         <v>459</v>
-      </c>
-      <c r="D231" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>4</v>
-      </c>
-      <c r="B232" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" t="s">
-        <v>461</v>
-      </c>
-      <c r="D232" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>4</v>
-      </c>
-      <c r="B233" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" t="s">
-        <v>463</v>
-      </c>
-      <c r="D233" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" t="s">
-        <v>465</v>
-      </c>
-      <c r="D234" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>4</v>
-      </c>
-      <c r="B235" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" t="s">
-        <v>467</v>
-      </c>
-      <c r="D235" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>4</v>
-      </c>
-      <c r="B236" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" t="s">
-        <v>469</v>
-      </c>
-      <c r="D236" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>4</v>
-      </c>
-      <c r="B237" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" t="s">
-        <v>471</v>
-      </c>
-      <c r="D237" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" t="s">
-        <v>473</v>
-      </c>
-      <c r="D238" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>4</v>
-      </c>
-      <c r="B239" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" t="s">
-        <v>475</v>
-      </c>
-      <c r="D239" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" t="s">
-        <v>477</v>
-      </c>
-      <c r="D240" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" t="s">
-        <v>479</v>
-      </c>
-      <c r="D241" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>4</v>
-      </c>
-      <c r="B242" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" t="s">
-        <v>481</v>
-      </c>
-      <c r="D242" t="s">
-        <v>482</v>
       </c>
     </row>
   </sheetData>
